--- a/scripts Stata/Atual/Resultados Finais do Modelo 15042020.xlsx
+++ b/scripts Stata/Atual/Resultados Finais do Modelo 15042020.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{795EDE95-E2E1-446A-B3AD-28B16EE0219E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2638935-410D-478E-95A4-DA050CE73E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1950" windowWidth="23040" windowHeight="9915" activeTab="2" xr2:uid="{960F0C12-CC96-4798-84B5-D06E74568E0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{960F0C12-CC96-4798-84B5-D06E74568E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>GC</t>
   </si>
@@ -147,13 +149,172 @@
   </si>
   <si>
     <t xml:space="preserve">0.0845 </t>
+  </si>
+  <si>
+    <t>0.1898*</t>
+  </si>
+  <si>
+    <t>-0.0445</t>
+  </si>
+  <si>
+    <t>0.0637</t>
+  </si>
+  <si>
+    <t>-0.0738</t>
+  </si>
+  <si>
+    <t>-0.0815</t>
+  </si>
+  <si>
+    <t>-0.2358*</t>
+  </si>
+  <si>
+    <t>-0.1520*</t>
+  </si>
+  <si>
+    <t>-0.1962*</t>
+  </si>
+  <si>
+    <t>0.0554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.2250* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0000 </t>
+  </si>
+  <si>
+    <t>-0.1790*</t>
+  </si>
+  <si>
+    <t>-0.1467*</t>
+  </si>
+  <si>
+    <t>0.0031</t>
+  </si>
+  <si>
+    <t>0.0698</t>
+  </si>
+  <si>
+    <t>-0.2655*</t>
+  </si>
+  <si>
+    <t>-0.0349</t>
+  </si>
+  <si>
+    <t>0.1552*</t>
+  </si>
+  <si>
+    <t>-0.3127*</t>
+  </si>
+  <si>
+    <t>-0.0166</t>
+  </si>
+  <si>
+    <t>0.6439*</t>
+  </si>
+  <si>
+    <t>0.3895*</t>
+  </si>
+  <si>
+    <t>-0.0310</t>
+  </si>
+  <si>
+    <t>0.0948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6552* </t>
+  </si>
+  <si>
+    <t>0.4142*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4765* </t>
+  </si>
+  <si>
+    <t>-0.1245*</t>
+  </si>
+  <si>
+    <t>0.1863*</t>
+  </si>
+  <si>
+    <t>-0.0503</t>
+  </si>
+  <si>
+    <t>-0.1656*</t>
+  </si>
+  <si>
+    <t>0.5043*</t>
+  </si>
+  <si>
+    <t>0.1120*</t>
+  </si>
+  <si>
+    <t>-0.4608*</t>
+  </si>
+  <si>
+    <t>0.0362</t>
+  </si>
+  <si>
+    <t>0.0047</t>
+  </si>
+  <si>
+    <t>-0.0325</t>
+  </si>
+  <si>
+    <t>0.3861*</t>
+  </si>
+  <si>
+    <t>0.3874*</t>
+  </si>
+  <si>
+    <t>-0.1485*</t>
+  </si>
+  <si>
+    <t>0.2202*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3964* </t>
+  </si>
+  <si>
+    <t>-0.2236*</t>
+  </si>
+  <si>
+    <t>0.0400</t>
+  </si>
+  <si>
+    <t>-0.2729*</t>
+  </si>
+  <si>
+    <t>0.1911*</t>
+  </si>
+  <si>
+    <t>0.0486</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>LegNE</t>
+  </si>
+  <si>
+    <t>LegCPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,16 +322,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,13 +396,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,6 +1030,552 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D10715B-9B2A-469D-8160-65087CFA45F3}">
+  <dimension ref="A2:M14"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEC2BE5-4E64-4B7F-AF79-F44E59D0ACAC}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809B1AEA-ED38-49D0-81A6-6B9BB3713BCD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/scripts Stata/Atual/Resultados Finais do Modelo 15042020.xlsx
+++ b/scripts Stata/Atual/Resultados Finais do Modelo 15042020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2638935-410D-478E-95A4-DA050CE73E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E261851E-C894-4D02-83C9-6F92B1F86534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{960F0C12-CC96-4798-84B5-D06E74568E0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{960F0C12-CC96-4798-84B5-D06E74568E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -444,6 +444,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D10715B-9B2A-469D-8160-65087CFA45F3}">
   <dimension ref="A2:M14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1124,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="M4">
+      <c r="M4" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1141,7 +1147,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="M5">
+      <c r="M5" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1166,7 +1172,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="M6">
+      <c r="M6" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1193,7 +1199,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="M7">
+      <c r="M7" s="19">
         <v>3</v>
       </c>
     </row>
@@ -1222,7 +1228,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="M8">
+      <c r="M8" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1255,7 +1261,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1290,7 +1296,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1327,7 +1333,7 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="20" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1366,7 +1372,7 @@
         <v>48</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1407,7 +1413,7 @@
       <c r="L13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1578,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809B1AEA-ED38-49D0-81A6-6B9BB3713BCD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
